--- a/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T07:19:23+00:00</t>
+    <t>2021-09-12T07:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T07:37:00+00:00</t>
+    <t>2021-09-18T10:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-18T10:16:13+00:00</t>
+    <t>2021-09-25T01:43:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-25T01:43:32+00:00</t>
+    <t>2021-09-26T03:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T03:05:54+00:00</t>
+    <t>2021-09-26T04:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T04:27:45+00:00</t>
+    <t>2021-09-30T09:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-30T09:59:38+00:00</t>
+    <t>2021-10-06T13:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:35:19+00:00</t>
+    <t>2021-10-06T13:42:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:42:37+00:00</t>
+    <t>2021-10-29T12:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:02:00+00:00</t>
+    <t>2021-10-29T12:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:05:23+00:00</t>
+    <t>2021-10-29T13:08:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:08:24+00:00</t>
+    <t>2021-10-29T13:58:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -7,13 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:58:33+00:00</t>
+    <t>2022-02-25T21:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,9 +93,6 @@
   </si>
   <si>
     <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>ValueSet URL</t>
   </si>
 </sst>
 </file>
@@ -357,26 +353,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
+++ b/branches/main/ValueSet-vs-vn-administrativeaddress.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:36:43+00:00</t>
+    <t>2022-03-16T09:10:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
